--- a/biology/Botanique/Sphenostemonaceae/Sphenostemonaceae.xlsx
+++ b/biology/Botanique/Sphenostemonaceae/Sphenostemonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Sphénostémonacées est une famille de plantes dicotylédones qui comprend 10 espèces du genre Sphenostemon (en).
 Ce sont des arbres ou des arbustes à feuillage persistant, des régions tropicales, originaires de Malaisie, d'Australie et de Nouvelle-Calédonie.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Sphenostemon, composé du préfixe sphen-, « en forme de coin  », et du suffixe -stemon, étamine.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe la divergence de cette famille au niveau des Campanulidées (Euasterids II).
 Angiosperm Phylogeny Website [18 août 2009] ne reconnait pas Sphenostemonaceae et inclut ces espèces dans la famille des Paracryphiaceae.
-En classification phylogénétique APG III (2009)[1] cette famille est invalide et ses genres sont incorporés dans la famille Paracryphiaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Paracryphiaceae.
 </t>
         </is>
       </c>
